--- a/converter/data/xlsx/20.12.B_SMJENA.XLSX
+++ b/converter/data/xlsx/20.12.B_SMJENA.XLSX
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\RASPORED-2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Korisnik\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B72723-7E3E-4C8A-B665-9763ECC6EB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" tabRatio="478"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="478" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B" sheetId="8" r:id="rId1"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="106">
   <si>
     <t>Predmetni profesor:</t>
   </si>
@@ -421,7 +422,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="41" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -2163,7 +2164,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="512">
+  <cellXfs count="511">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3051,9 +3052,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="20" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3407,12 +3405,42 @@
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3421,9 +3449,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3434,47 +3459,20 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="86" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="87" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="4"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Normalno" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalno 2" xfId="1"/>
-    <cellStyle name="Normalno 3" xfId="5"/>
-    <cellStyle name="Normalno 4" xfId="6"/>
-    <cellStyle name="Normalno 5" xfId="7"/>
-    <cellStyle name="Normalno 7" xfId="8"/>
-    <cellStyle name="Obično 3" xfId="3"/>
+    <cellStyle name="Normalno 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normalno 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normalno 4" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Normalno 5" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Normalno 7" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Obično 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3518,7 +3516,7 @@
         <xdr:cNvPr id="2" name="TextBox 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3639,6 +3637,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3674,6 +3689,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3849,124 +3881,124 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="75" workbookViewId="0">
+      <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.5703125" style="6" customWidth="1"/>
-    <col min="9" max="11" width="6.5703125" style="6" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" style="6" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="6" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="6" customWidth="1"/>
-    <col min="16" max="17" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="5.5703125" style="6" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" style="6" customWidth="1"/>
-    <col min="21" max="21" width="6.28515625" style="6" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="6" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" style="6" customWidth="1"/>
-    <col min="24" max="25" width="6.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.28515625" style="1" customWidth="1"/>
-    <col min="27" max="27" width="5.28515625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="5.7109375" style="1" customWidth="1"/>
-    <col min="29" max="30" width="5.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.7109375" style="1" customWidth="1"/>
-    <col min="32" max="32" width="5.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="42.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.5546875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5546875" style="6" customWidth="1"/>
+    <col min="9" max="11" width="6.5546875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="6.6640625" style="6" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" style="6" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="6" customWidth="1"/>
+    <col min="16" max="17" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="5.5546875" style="6" customWidth="1"/>
+    <col min="20" max="20" width="6.6640625" style="6" customWidth="1"/>
+    <col min="21" max="21" width="6.33203125" style="6" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="6" customWidth="1"/>
+    <col min="23" max="23" width="5.5546875" style="6" customWidth="1"/>
+    <col min="24" max="25" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="5.33203125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" style="1" customWidth="1"/>
+    <col min="29" max="30" width="5.33203125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.6640625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="5.33203125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5546875" style="1" customWidth="1"/>
     <col min="34" max="34" width="5" style="1" customWidth="1"/>
-    <col min="35" max="36" width="5.28515625" style="1" customWidth="1"/>
-    <col min="37" max="16384" width="9.28515625" style="1"/>
+    <col min="35" max="36" width="5.33203125" style="1" customWidth="1"/>
+    <col min="37" max="16384" width="9.33203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="27" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="493" t="s">
+    <row r="1" spans="1:36" ht="25.2" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="503" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="493"/>
-      <c r="C1" s="493"/>
-      <c r="D1" s="493"/>
-      <c r="E1" s="493"/>
-      <c r="F1" s="493"/>
-      <c r="G1" s="493"/>
-      <c r="H1" s="493"/>
-      <c r="I1" s="493"/>
-      <c r="J1" s="493"/>
-      <c r="K1" s="493"/>
-      <c r="L1" s="493"/>
-      <c r="M1" s="493"/>
-      <c r="N1" s="493"/>
-      <c r="O1" s="493"/>
-      <c r="P1" s="493"/>
-      <c r="Q1" s="493"/>
-      <c r="R1" s="493"/>
-      <c r="S1" s="493"/>
-      <c r="T1" s="493"/>
-      <c r="U1" s="493"/>
-      <c r="V1" s="493"/>
-      <c r="W1" s="493"/>
-      <c r="X1" s="493"/>
-      <c r="Y1" s="493"/>
-    </row>
-    <row r="2" spans="1:36" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="503"/>
+      <c r="C1" s="503"/>
+      <c r="D1" s="503"/>
+      <c r="E1" s="503"/>
+      <c r="F1" s="503"/>
+      <c r="G1" s="503"/>
+      <c r="H1" s="503"/>
+      <c r="I1" s="503"/>
+      <c r="J1" s="503"/>
+      <c r="K1" s="503"/>
+      <c r="L1" s="503"/>
+      <c r="M1" s="503"/>
+      <c r="N1" s="503"/>
+      <c r="O1" s="503"/>
+      <c r="P1" s="503"/>
+      <c r="Q1" s="503"/>
+      <c r="R1" s="503"/>
+      <c r="S1" s="503"/>
+      <c r="T1" s="503"/>
+      <c r="U1" s="503"/>
+      <c r="V1" s="503"/>
+      <c r="W1" s="503"/>
+      <c r="X1" s="503"/>
+      <c r="Y1" s="503"/>
+    </row>
+    <row r="2" spans="1:36" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="494" t="s">
+      <c r="B2" s="497" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="495"/>
-      <c r="D2" s="495"/>
-      <c r="E2" s="495"/>
-      <c r="F2" s="495"/>
-      <c r="G2" s="495"/>
-      <c r="H2" s="496"/>
-      <c r="I2" s="497" t="s">
+      <c r="C2" s="504"/>
+      <c r="D2" s="504"/>
+      <c r="E2" s="504"/>
+      <c r="F2" s="504"/>
+      <c r="G2" s="504"/>
+      <c r="H2" s="505"/>
+      <c r="I2" s="506" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="495"/>
-      <c r="K2" s="495"/>
-      <c r="L2" s="495"/>
-      <c r="M2" s="495"/>
-      <c r="N2" s="495"/>
-      <c r="O2" s="496"/>
-      <c r="P2" s="494" t="s">
+      <c r="J2" s="504"/>
+      <c r="K2" s="504"/>
+      <c r="L2" s="504"/>
+      <c r="M2" s="504"/>
+      <c r="N2" s="504"/>
+      <c r="O2" s="505"/>
+      <c r="P2" s="497" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" s="495"/>
-      <c r="R2" s="495"/>
-      <c r="S2" s="495"/>
-      <c r="T2" s="495"/>
-      <c r="U2" s="495"/>
-      <c r="V2" s="496"/>
-      <c r="W2" s="505" t="s">
+      <c r="Q2" s="504"/>
+      <c r="R2" s="504"/>
+      <c r="S2" s="504"/>
+      <c r="T2" s="504"/>
+      <c r="U2" s="504"/>
+      <c r="V2" s="505"/>
+      <c r="W2" s="495" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="506"/>
-      <c r="Y2" s="506"/>
-      <c r="Z2" s="506"/>
-      <c r="AA2" s="506"/>
-      <c r="AB2" s="506"/>
-      <c r="AC2" s="494"/>
-      <c r="AD2" s="507" t="s">
+      <c r="X2" s="496"/>
+      <c r="Y2" s="496"/>
+      <c r="Z2" s="496"/>
+      <c r="AA2" s="496"/>
+      <c r="AB2" s="496"/>
+      <c r="AC2" s="497"/>
+      <c r="AD2" s="498" t="s">
         <v>105</v>
       </c>
-      <c r="AE2" s="507"/>
-      <c r="AF2" s="507"/>
-      <c r="AG2" s="507"/>
-      <c r="AH2" s="507"/>
-      <c r="AI2" s="507"/>
-      <c r="AJ2" s="508"/>
-    </row>
-    <row r="3" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE2" s="498"/>
+      <c r="AF2" s="498"/>
+      <c r="AG2" s="498"/>
+      <c r="AH2" s="498"/>
+      <c r="AI2" s="498"/>
+      <c r="AJ2" s="499"/>
+    </row>
+    <row r="3" spans="1:36" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -4042,33 +4074,33 @@
       <c r="Y3" s="4">
         <v>3</v>
       </c>
-      <c r="Z3" s="486"/>
-      <c r="AA3" s="487"/>
-      <c r="AB3" s="487"/>
-      <c r="AC3" s="488"/>
-      <c r="AD3" s="489">
+      <c r="Z3" s="485"/>
+      <c r="AA3" s="486"/>
+      <c r="AB3" s="486"/>
+      <c r="AC3" s="487"/>
+      <c r="AD3" s="488">
         <v>1</v>
       </c>
-      <c r="AE3" s="487">
+      <c r="AE3" s="486">
         <v>2</v>
       </c>
-      <c r="AF3" s="487">
+      <c r="AF3" s="486">
         <v>3</v>
       </c>
-      <c r="AG3" s="487">
+      <c r="AG3" s="486">
         <v>4</v>
       </c>
-      <c r="AH3" s="487">
+      <c r="AH3" s="486">
         <v>5</v>
       </c>
-      <c r="AI3" s="487">
+      <c r="AI3" s="486">
         <v>6</v>
       </c>
-      <c r="AJ3" s="487">
+      <c r="AJ3" s="486">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="44" t="s">
         <v>70</v>
       </c>
@@ -4126,19 +4158,19 @@
       <c r="W4" s="21"/>
       <c r="X4" s="21"/>
       <c r="Y4" s="84"/>
-      <c r="Z4" s="356"/>
-      <c r="AA4" s="356"/>
-      <c r="AB4" s="356"/>
-      <c r="AC4" s="357"/>
-      <c r="AD4" s="358"/>
-      <c r="AE4" s="356"/>
-      <c r="AF4" s="356"/>
-      <c r="AG4" s="356"/>
-      <c r="AH4" s="356"/>
-      <c r="AI4" s="358"/>
-      <c r="AJ4" s="359"/>
-    </row>
-    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="355"/>
+      <c r="AA4" s="355"/>
+      <c r="AB4" s="355"/>
+      <c r="AC4" s="356"/>
+      <c r="AD4" s="357"/>
+      <c r="AE4" s="355"/>
+      <c r="AF4" s="355"/>
+      <c r="AG4" s="355"/>
+      <c r="AH4" s="355"/>
+      <c r="AI4" s="357"/>
+      <c r="AJ4" s="358"/>
+    </row>
+    <row r="5" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="191" t="s">
         <v>71</v>
       </c>
@@ -4192,19 +4224,19 @@
       <c r="Y5" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="Z5" s="360"/>
-      <c r="AA5" s="360"/>
-      <c r="AB5" s="360"/>
-      <c r="AC5" s="361"/>
-      <c r="AD5" s="362"/>
-      <c r="AE5" s="360"/>
-      <c r="AF5" s="360"/>
-      <c r="AG5" s="360"/>
-      <c r="AH5" s="360"/>
-      <c r="AI5" s="360"/>
-      <c r="AJ5" s="363"/>
-    </row>
-    <row r="6" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z5" s="359"/>
+      <c r="AA5" s="359"/>
+      <c r="AB5" s="359"/>
+      <c r="AC5" s="360"/>
+      <c r="AD5" s="361"/>
+      <c r="AE5" s="359"/>
+      <c r="AF5" s="359"/>
+      <c r="AG5" s="359"/>
+      <c r="AH5" s="359"/>
+      <c r="AI5" s="359"/>
+      <c r="AJ5" s="362"/>
+    </row>
+    <row r="6" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="192" t="s">
         <v>59</v>
       </c>
@@ -4248,19 +4280,19 @@
       <c r="Y6" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="Z6" s="364"/>
-      <c r="AA6" s="364"/>
-      <c r="AB6" s="364"/>
-      <c r="AC6" s="365"/>
-      <c r="AD6" s="366"/>
-      <c r="AE6" s="364"/>
-      <c r="AF6" s="364"/>
-      <c r="AG6" s="364"/>
-      <c r="AH6" s="364"/>
-      <c r="AI6" s="364"/>
-      <c r="AJ6" s="367"/>
-    </row>
-    <row r="7" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="363"/>
+      <c r="AA6" s="363"/>
+      <c r="AB6" s="363"/>
+      <c r="AC6" s="364"/>
+      <c r="AD6" s="365"/>
+      <c r="AE6" s="363"/>
+      <c r="AF6" s="363"/>
+      <c r="AG6" s="363"/>
+      <c r="AH6" s="363"/>
+      <c r="AI6" s="363"/>
+      <c r="AJ6" s="366"/>
+    </row>
+    <row r="7" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="233" t="s">
         <v>48</v>
       </c>
@@ -4306,19 +4338,19 @@
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
       <c r="Y7" s="20"/>
-      <c r="Z7" s="368"/>
-      <c r="AA7" s="369"/>
-      <c r="AB7" s="369"/>
-      <c r="AC7" s="370"/>
-      <c r="AD7" s="371"/>
-      <c r="AE7" s="369"/>
-      <c r="AF7" s="369"/>
-      <c r="AG7" s="369"/>
-      <c r="AH7" s="369"/>
-      <c r="AI7" s="369"/>
-      <c r="AJ7" s="372"/>
-    </row>
-    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="367"/>
+      <c r="AA7" s="368"/>
+      <c r="AB7" s="368"/>
+      <c r="AC7" s="369"/>
+      <c r="AD7" s="370"/>
+      <c r="AE7" s="368"/>
+      <c r="AF7" s="368"/>
+      <c r="AG7" s="368"/>
+      <c r="AH7" s="368"/>
+      <c r="AI7" s="368"/>
+      <c r="AJ7" s="371"/>
+    </row>
+    <row r="8" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
         <v>73</v>
       </c>
@@ -4372,19 +4404,19 @@
         <v>45</v>
       </c>
       <c r="Y8" s="20"/>
-      <c r="Z8" s="369"/>
-      <c r="AA8" s="369"/>
-      <c r="AB8" s="369"/>
-      <c r="AC8" s="370"/>
-      <c r="AD8" s="371"/>
-      <c r="AE8" s="369"/>
-      <c r="AF8" s="369"/>
-      <c r="AG8" s="369"/>
-      <c r="AH8" s="369"/>
-      <c r="AI8" s="369"/>
-      <c r="AJ8" s="372"/>
-    </row>
-    <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="368"/>
+      <c r="AA8" s="368"/>
+      <c r="AB8" s="368"/>
+      <c r="AC8" s="369"/>
+      <c r="AD8" s="370"/>
+      <c r="AE8" s="368"/>
+      <c r="AF8" s="368"/>
+      <c r="AG8" s="368"/>
+      <c r="AH8" s="368"/>
+      <c r="AI8" s="368"/>
+      <c r="AJ8" s="371"/>
+    </row>
+    <row r="9" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14" t="s">
         <v>60</v>
       </c>
@@ -4433,26 +4465,24 @@
       </c>
       <c r="U9" s="30"/>
       <c r="V9" s="32"/>
-      <c r="W9" s="351" t="s">
-        <v>77</v>
-      </c>
+      <c r="W9" s="30"/>
       <c r="X9" s="327" t="s">
         <v>45</v>
       </c>
       <c r="Y9" s="32"/>
-      <c r="Z9" s="373"/>
-      <c r="AA9" s="373"/>
-      <c r="AB9" s="373"/>
-      <c r="AC9" s="374"/>
-      <c r="AD9" s="375"/>
-      <c r="AE9" s="373"/>
-      <c r="AF9" s="373"/>
-      <c r="AG9" s="373"/>
-      <c r="AH9" s="373"/>
-      <c r="AI9" s="373"/>
-      <c r="AJ9" s="376"/>
-    </row>
-    <row r="10" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z9" s="372"/>
+      <c r="AA9" s="372"/>
+      <c r="AB9" s="372"/>
+      <c r="AC9" s="373"/>
+      <c r="AD9" s="374"/>
+      <c r="AE9" s="372"/>
+      <c r="AF9" s="372"/>
+      <c r="AG9" s="372"/>
+      <c r="AH9" s="372"/>
+      <c r="AI9" s="372"/>
+      <c r="AJ9" s="375"/>
+    </row>
+    <row r="10" spans="1:36" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="192" t="s">
         <v>8</v>
       </c>
@@ -4486,19 +4516,19 @@
       <c r="Y10" s="321" t="s">
         <v>80</v>
       </c>
-      <c r="Z10" s="364"/>
-      <c r="AA10" s="377"/>
-      <c r="AB10" s="377"/>
-      <c r="AC10" s="378"/>
-      <c r="AD10" s="379"/>
-      <c r="AE10" s="377"/>
-      <c r="AF10" s="377"/>
-      <c r="AG10" s="364"/>
-      <c r="AH10" s="364"/>
-      <c r="AI10" s="364"/>
-      <c r="AJ10" s="367"/>
-    </row>
-    <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="363"/>
+      <c r="AA10" s="376"/>
+      <c r="AB10" s="376"/>
+      <c r="AC10" s="377"/>
+      <c r="AD10" s="378"/>
+      <c r="AE10" s="376"/>
+      <c r="AF10" s="376"/>
+      <c r="AG10" s="363"/>
+      <c r="AH10" s="363"/>
+      <c r="AI10" s="363"/>
+      <c r="AJ10" s="366"/>
+    </row>
+    <row r="11" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="193" t="s">
         <v>16</v>
       </c>
@@ -4532,19 +4562,19 @@
       <c r="W11" s="10"/>
       <c r="X11" s="10"/>
       <c r="Y11" s="20"/>
-      <c r="Z11" s="369"/>
-      <c r="AA11" s="369"/>
-      <c r="AB11" s="369"/>
-      <c r="AC11" s="370"/>
-      <c r="AD11" s="371"/>
-      <c r="AE11" s="369"/>
-      <c r="AF11" s="369"/>
-      <c r="AG11" s="369"/>
-      <c r="AH11" s="369"/>
-      <c r="AI11" s="369"/>
-      <c r="AJ11" s="372"/>
-    </row>
-    <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="368"/>
+      <c r="AA11" s="368"/>
+      <c r="AB11" s="368"/>
+      <c r="AC11" s="369"/>
+      <c r="AD11" s="370"/>
+      <c r="AE11" s="368"/>
+      <c r="AF11" s="368"/>
+      <c r="AG11" s="368"/>
+      <c r="AH11" s="368"/>
+      <c r="AI11" s="368"/>
+      <c r="AJ11" s="371"/>
+    </row>
+    <row r="12" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="193" t="s">
         <v>65</v>
       </c>
@@ -4576,19 +4606,19 @@
       <c r="W12" s="10"/>
       <c r="X12" s="10"/>
       <c r="Y12" s="20"/>
-      <c r="Z12" s="369"/>
-      <c r="AA12" s="369"/>
-      <c r="AB12" s="369"/>
-      <c r="AC12" s="370"/>
-      <c r="AD12" s="371"/>
-      <c r="AE12" s="371"/>
-      <c r="AF12" s="369"/>
-      <c r="AG12" s="369"/>
-      <c r="AH12" s="369"/>
-      <c r="AI12" s="369"/>
-      <c r="AJ12" s="372"/>
-    </row>
-    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="368"/>
+      <c r="AA12" s="368"/>
+      <c r="AB12" s="368"/>
+      <c r="AC12" s="369"/>
+      <c r="AD12" s="370"/>
+      <c r="AE12" s="370"/>
+      <c r="AF12" s="368"/>
+      <c r="AG12" s="368"/>
+      <c r="AH12" s="368"/>
+      <c r="AI12" s="368"/>
+      <c r="AJ12" s="371"/>
+    </row>
+    <row r="13" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="193" t="s">
         <v>13</v>
       </c>
@@ -4632,19 +4662,19 @@
       <c r="W13" s="10"/>
       <c r="X13" s="10"/>
       <c r="Y13" s="20"/>
-      <c r="Z13" s="369"/>
-      <c r="AA13" s="369"/>
-      <c r="AB13" s="369"/>
-      <c r="AC13" s="370"/>
-      <c r="AD13" s="380"/>
-      <c r="AE13" s="371"/>
-      <c r="AF13" s="369"/>
-      <c r="AG13" s="369"/>
-      <c r="AH13" s="369"/>
-      <c r="AI13" s="369"/>
-      <c r="AJ13" s="372"/>
-    </row>
-    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="368"/>
+      <c r="AA13" s="368"/>
+      <c r="AB13" s="368"/>
+      <c r="AC13" s="369"/>
+      <c r="AD13" s="379"/>
+      <c r="AE13" s="370"/>
+      <c r="AF13" s="368"/>
+      <c r="AG13" s="368"/>
+      <c r="AH13" s="368"/>
+      <c r="AI13" s="368"/>
+      <c r="AJ13" s="371"/>
+    </row>
+    <row r="14" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="194" t="s">
         <v>11</v>
       </c>
@@ -4686,19 +4716,19 @@
       <c r="W14" s="10"/>
       <c r="X14" s="10"/>
       <c r="Y14" s="20"/>
-      <c r="Z14" s="369"/>
-      <c r="AA14" s="369"/>
-      <c r="AB14" s="369"/>
-      <c r="AC14" s="370"/>
-      <c r="AD14" s="371"/>
-      <c r="AE14" s="371"/>
-      <c r="AF14" s="369"/>
-      <c r="AG14" s="369"/>
-      <c r="AH14" s="369"/>
-      <c r="AI14" s="369"/>
-      <c r="AJ14" s="372"/>
-    </row>
-    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="368"/>
+      <c r="AA14" s="368"/>
+      <c r="AB14" s="368"/>
+      <c r="AC14" s="369"/>
+      <c r="AD14" s="370"/>
+      <c r="AE14" s="370"/>
+      <c r="AF14" s="368"/>
+      <c r="AG14" s="368"/>
+      <c r="AH14" s="368"/>
+      <c r="AI14" s="368"/>
+      <c r="AJ14" s="371"/>
+    </row>
+    <row r="15" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="194" t="s">
         <v>31</v>
       </c>
@@ -4740,19 +4770,19 @@
       <c r="W15" s="10"/>
       <c r="X15" s="10"/>
       <c r="Y15" s="20"/>
-      <c r="Z15" s="369"/>
-      <c r="AA15" s="369"/>
-      <c r="AB15" s="369"/>
-      <c r="AC15" s="370"/>
-      <c r="AD15" s="371"/>
-      <c r="AE15" s="371"/>
-      <c r="AF15" s="369"/>
-      <c r="AG15" s="369"/>
-      <c r="AH15" s="369"/>
-      <c r="AI15" s="369"/>
-      <c r="AJ15" s="372"/>
-    </row>
-    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="368"/>
+      <c r="AA15" s="368"/>
+      <c r="AB15" s="368"/>
+      <c r="AC15" s="369"/>
+      <c r="AD15" s="370"/>
+      <c r="AE15" s="370"/>
+      <c r="AF15" s="368"/>
+      <c r="AG15" s="368"/>
+      <c r="AH15" s="368"/>
+      <c r="AI15" s="368"/>
+      <c r="AJ15" s="371"/>
+    </row>
+    <row r="16" spans="1:36" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="194" t="s">
         <v>40</v>
       </c>
@@ -4798,19 +4828,19 @@
       <c r="W16" s="10"/>
       <c r="X16" s="10"/>
       <c r="Y16" s="20"/>
-      <c r="Z16" s="369"/>
-      <c r="AA16" s="369"/>
-      <c r="AB16" s="369"/>
-      <c r="AC16" s="370"/>
-      <c r="AD16" s="371"/>
-      <c r="AE16" s="371"/>
-      <c r="AF16" s="369"/>
-      <c r="AG16" s="369"/>
-      <c r="AH16" s="369"/>
-      <c r="AI16" s="369"/>
-      <c r="AJ16" s="372"/>
-    </row>
-    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z16" s="368"/>
+      <c r="AA16" s="368"/>
+      <c r="AB16" s="368"/>
+      <c r="AC16" s="369"/>
+      <c r="AD16" s="370"/>
+      <c r="AE16" s="370"/>
+      <c r="AF16" s="368"/>
+      <c r="AG16" s="368"/>
+      <c r="AH16" s="368"/>
+      <c r="AI16" s="368"/>
+      <c r="AJ16" s="371"/>
+    </row>
+    <row r="17" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="191" t="s">
         <v>5</v>
       </c>
@@ -4838,19 +4868,19 @@
       <c r="W17" s="26"/>
       <c r="X17" s="26"/>
       <c r="Y17" s="23"/>
-      <c r="Z17" s="381"/>
-      <c r="AA17" s="381"/>
-      <c r="AB17" s="381"/>
-      <c r="AC17" s="382"/>
-      <c r="AD17" s="383"/>
-      <c r="AE17" s="383"/>
-      <c r="AF17" s="381"/>
-      <c r="AG17" s="381"/>
-      <c r="AH17" s="381"/>
-      <c r="AI17" s="381"/>
-      <c r="AJ17" s="384"/>
-    </row>
-    <row r="18" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z17" s="380"/>
+      <c r="AA17" s="380"/>
+      <c r="AB17" s="380"/>
+      <c r="AC17" s="381"/>
+      <c r="AD17" s="382"/>
+      <c r="AE17" s="382"/>
+      <c r="AF17" s="380"/>
+      <c r="AG17" s="380"/>
+      <c r="AH17" s="380"/>
+      <c r="AI17" s="380"/>
+      <c r="AJ17" s="383"/>
+    </row>
+    <row r="18" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
@@ -4886,17 +4916,17 @@
       <c r="W18" s="19"/>
       <c r="X18" s="19"/>
       <c r="Y18" s="31"/>
-      <c r="Z18" s="364"/>
-      <c r="AA18" s="364"/>
-      <c r="AB18" s="364"/>
-      <c r="AC18" s="365"/>
-      <c r="AD18" s="366"/>
-      <c r="AE18" s="364"/>
-      <c r="AF18" s="364"/>
-      <c r="AG18" s="364"/>
-      <c r="AH18" s="364"/>
-      <c r="AI18" s="364"/>
-      <c r="AJ18" s="367"/>
+      <c r="Z18" s="363"/>
+      <c r="AA18" s="363"/>
+      <c r="AB18" s="363"/>
+      <c r="AC18" s="364"/>
+      <c r="AD18" s="365"/>
+      <c r="AE18" s="363"/>
+      <c r="AF18" s="363"/>
+      <c r="AG18" s="363"/>
+      <c r="AH18" s="363"/>
+      <c r="AI18" s="363"/>
+      <c r="AJ18" s="366"/>
     </row>
     <row r="19" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="191" t="s">
@@ -4946,17 +4976,17 @@
       <c r="W19" s="30"/>
       <c r="X19" s="30"/>
       <c r="Y19" s="32"/>
-      <c r="Z19" s="373"/>
-      <c r="AA19" s="373"/>
-      <c r="AB19" s="373"/>
-      <c r="AC19" s="374"/>
-      <c r="AD19" s="375"/>
-      <c r="AE19" s="373"/>
-      <c r="AF19" s="373"/>
-      <c r="AG19" s="373"/>
-      <c r="AH19" s="373"/>
-      <c r="AI19" s="373"/>
-      <c r="AJ19" s="376"/>
+      <c r="Z19" s="372"/>
+      <c r="AA19" s="372"/>
+      <c r="AB19" s="372"/>
+      <c r="AC19" s="373"/>
+      <c r="AD19" s="374"/>
+      <c r="AE19" s="372"/>
+      <c r="AF19" s="372"/>
+      <c r="AG19" s="372"/>
+      <c r="AH19" s="372"/>
+      <c r="AI19" s="372"/>
+      <c r="AJ19" s="375"/>
     </row>
     <row r="20" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="191" t="s">
@@ -4990,19 +5020,19 @@
       <c r="Y20" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="Z20" s="373"/>
-      <c r="AA20" s="373"/>
-      <c r="AB20" s="373"/>
-      <c r="AC20" s="374"/>
-      <c r="AD20" s="375"/>
-      <c r="AE20" s="373"/>
-      <c r="AF20" s="373"/>
-      <c r="AG20" s="373"/>
-      <c r="AH20" s="373"/>
-      <c r="AI20" s="373"/>
-      <c r="AJ20" s="376"/>
-    </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z20" s="372"/>
+      <c r="AA20" s="372"/>
+      <c r="AB20" s="372"/>
+      <c r="AC20" s="373"/>
+      <c r="AD20" s="374"/>
+      <c r="AE20" s="372"/>
+      <c r="AF20" s="372"/>
+      <c r="AG20" s="372"/>
+      <c r="AH20" s="372"/>
+      <c r="AI20" s="372"/>
+      <c r="AJ20" s="375"/>
+    </row>
+    <row r="21" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="191" t="s">
         <v>100</v>
       </c>
@@ -5044,19 +5074,19 @@
         <v>56</v>
       </c>
       <c r="Y21" s="32"/>
-      <c r="Z21" s="373"/>
-      <c r="AA21" s="373"/>
-      <c r="AB21" s="373"/>
-      <c r="AC21" s="374"/>
-      <c r="AD21" s="375"/>
-      <c r="AE21" s="373"/>
-      <c r="AF21" s="373"/>
-      <c r="AG21" s="373"/>
-      <c r="AH21" s="373"/>
-      <c r="AI21" s="373"/>
-      <c r="AJ21" s="376"/>
-    </row>
-    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z21" s="372"/>
+      <c r="AA21" s="372"/>
+      <c r="AB21" s="372"/>
+      <c r="AC21" s="373"/>
+      <c r="AD21" s="374"/>
+      <c r="AE21" s="372"/>
+      <c r="AF21" s="372"/>
+      <c r="AG21" s="372"/>
+      <c r="AH21" s="372"/>
+      <c r="AI21" s="372"/>
+      <c r="AJ21" s="375"/>
+    </row>
+    <row r="22" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="191" t="s">
         <v>64</v>
       </c>
@@ -5098,19 +5128,19 @@
       <c r="Y22" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="Z22" s="385"/>
-      <c r="AA22" s="385"/>
-      <c r="AB22" s="373"/>
-      <c r="AC22" s="374"/>
-      <c r="AD22" s="375"/>
-      <c r="AE22" s="373"/>
-      <c r="AF22" s="381"/>
-      <c r="AG22" s="373"/>
-      <c r="AH22" s="373"/>
-      <c r="AI22" s="373"/>
-      <c r="AJ22" s="376"/>
-    </row>
-    <row r="23" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z22" s="384"/>
+      <c r="AA22" s="384"/>
+      <c r="AB22" s="372"/>
+      <c r="AC22" s="373"/>
+      <c r="AD22" s="374"/>
+      <c r="AE22" s="372"/>
+      <c r="AF22" s="380"/>
+      <c r="AG22" s="372"/>
+      <c r="AH22" s="372"/>
+      <c r="AI22" s="372"/>
+      <c r="AJ22" s="375"/>
+    </row>
+    <row r="23" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="192" t="s">
         <v>32</v>
       </c>
@@ -5158,19 +5188,19 @@
       <c r="Y23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" s="364"/>
-      <c r="AA23" s="364"/>
-      <c r="AB23" s="364"/>
-      <c r="AC23" s="382"/>
-      <c r="AD23" s="366"/>
-      <c r="AE23" s="364"/>
-      <c r="AF23" s="364"/>
-      <c r="AG23" s="364"/>
-      <c r="AH23" s="364"/>
-      <c r="AI23" s="364"/>
-      <c r="AJ23" s="367"/>
-    </row>
-    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z23" s="363"/>
+      <c r="AA23" s="363"/>
+      <c r="AB23" s="363"/>
+      <c r="AC23" s="381"/>
+      <c r="AD23" s="365"/>
+      <c r="AE23" s="363"/>
+      <c r="AF23" s="363"/>
+      <c r="AG23" s="363"/>
+      <c r="AH23" s="363"/>
+      <c r="AI23" s="363"/>
+      <c r="AJ23" s="366"/>
+    </row>
+    <row r="24" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="182" t="s">
         <v>27</v>
       </c>
@@ -5230,17 +5260,17 @@
       <c r="Y24" s="243" t="s">
         <v>77</v>
       </c>
-      <c r="Z24" s="386"/>
-      <c r="AA24" s="387"/>
-      <c r="AB24" s="386"/>
-      <c r="AC24" s="388"/>
-      <c r="AD24" s="389"/>
-      <c r="AE24" s="368"/>
-      <c r="AF24" s="390"/>
-      <c r="AG24" s="390"/>
-      <c r="AH24" s="391"/>
-      <c r="AI24" s="391"/>
-      <c r="AJ24" s="392"/>
+      <c r="Z24" s="385"/>
+      <c r="AA24" s="386"/>
+      <c r="AB24" s="385"/>
+      <c r="AC24" s="387"/>
+      <c r="AD24" s="388"/>
+      <c r="AE24" s="367"/>
+      <c r="AF24" s="389"/>
+      <c r="AG24" s="389"/>
+      <c r="AH24" s="390"/>
+      <c r="AI24" s="390"/>
+      <c r="AJ24" s="391"/>
     </row>
     <row r="25" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="193" t="s">
@@ -5276,17 +5306,17 @@
       <c r="W25" s="186"/>
       <c r="X25" s="205"/>
       <c r="Y25" s="222"/>
-      <c r="Z25" s="393"/>
-      <c r="AA25" s="394"/>
-      <c r="AB25" s="393"/>
-      <c r="AC25" s="395"/>
-      <c r="AD25" s="394"/>
-      <c r="AE25" s="393"/>
-      <c r="AF25" s="393"/>
-      <c r="AG25" s="393"/>
-      <c r="AH25" s="396"/>
-      <c r="AI25" s="396"/>
-      <c r="AJ25" s="397"/>
+      <c r="Z25" s="392"/>
+      <c r="AA25" s="393"/>
+      <c r="AB25" s="392"/>
+      <c r="AC25" s="394"/>
+      <c r="AD25" s="393"/>
+      <c r="AE25" s="392"/>
+      <c r="AF25" s="392"/>
+      <c r="AG25" s="392"/>
+      <c r="AH25" s="395"/>
+      <c r="AI25" s="395"/>
+      <c r="AJ25" s="396"/>
     </row>
     <row r="26" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="183" t="s">
@@ -5335,31 +5365,29 @@
       <c r="V26" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="W26" s="355" t="s">
-        <v>77</v>
-      </c>
+      <c r="W26" s="354"/>
       <c r="X26" s="77" t="s">
         <v>52</v>
       </c>
       <c r="Y26" s="90" t="s">
         <v>52</v>
       </c>
-      <c r="Z26" s="398"/>
-      <c r="AA26" s="399"/>
-      <c r="AB26" s="398"/>
-      <c r="AC26" s="400"/>
-      <c r="AD26" s="401"/>
-      <c r="AE26" s="402"/>
-      <c r="AF26" s="403"/>
-      <c r="AG26" s="403"/>
-      <c r="AH26" s="404"/>
-      <c r="AI26" s="404"/>
-      <c r="AJ26" s="405"/>
-      <c r="AK26" s="490" t="s">
+      <c r="Z26" s="397"/>
+      <c r="AA26" s="398"/>
+      <c r="AB26" s="397"/>
+      <c r="AC26" s="399"/>
+      <c r="AD26" s="400"/>
+      <c r="AE26" s="401"/>
+      <c r="AF26" s="402"/>
+      <c r="AG26" s="402"/>
+      <c r="AH26" s="403"/>
+      <c r="AI26" s="403"/>
+      <c r="AJ26" s="404"/>
+      <c r="AK26" s="489" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="193" t="s">
         <v>25</v>
       </c>
@@ -5409,22 +5437,22 @@
       <c r="W27" s="122"/>
       <c r="X27" s="122"/>
       <c r="Y27" s="123"/>
-      <c r="Z27" s="406"/>
-      <c r="AA27" s="406"/>
-      <c r="AB27" s="406"/>
-      <c r="AC27" s="388"/>
-      <c r="AD27" s="371"/>
-      <c r="AE27" s="393"/>
-      <c r="AF27" s="369"/>
-      <c r="AG27" s="407"/>
-      <c r="AH27" s="408"/>
-      <c r="AI27" s="406"/>
-      <c r="AJ27" s="409"/>
+      <c r="Z27" s="405"/>
+      <c r="AA27" s="405"/>
+      <c r="AB27" s="405"/>
+      <c r="AC27" s="387"/>
+      <c r="AD27" s="370"/>
+      <c r="AE27" s="392"/>
+      <c r="AF27" s="368"/>
+      <c r="AG27" s="406"/>
+      <c r="AH27" s="407"/>
+      <c r="AI27" s="405"/>
+      <c r="AJ27" s="408"/>
       <c r="AK27" s="96" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="194" t="s">
         <v>14</v>
       </c>
@@ -5472,17 +5500,17 @@
       <c r="W28" s="26"/>
       <c r="X28" s="26"/>
       <c r="Y28" s="23"/>
-      <c r="Z28" s="381"/>
-      <c r="AA28" s="381"/>
-      <c r="AB28" s="381"/>
-      <c r="AC28" s="382"/>
-      <c r="AD28" s="380"/>
-      <c r="AE28" s="381"/>
-      <c r="AF28" s="410"/>
-      <c r="AG28" s="381"/>
-      <c r="AH28" s="381"/>
-      <c r="AI28" s="381"/>
-      <c r="AJ28" s="384"/>
+      <c r="Z28" s="380"/>
+      <c r="AA28" s="380"/>
+      <c r="AB28" s="380"/>
+      <c r="AC28" s="381"/>
+      <c r="AD28" s="379"/>
+      <c r="AE28" s="380"/>
+      <c r="AF28" s="409"/>
+      <c r="AG28" s="380"/>
+      <c r="AH28" s="380"/>
+      <c r="AI28" s="380"/>
+      <c r="AJ28" s="383"/>
       <c r="AK28" s="97" t="s">
         <v>34</v>
       </c>
@@ -5531,20 +5559,20 @@
       <c r="W29" s="102"/>
       <c r="X29" s="63"/>
       <c r="Y29" s="201"/>
-      <c r="Z29" s="385"/>
-      <c r="AA29" s="385"/>
-      <c r="AB29" s="411"/>
-      <c r="AC29" s="412"/>
-      <c r="AD29" s="375"/>
-      <c r="AE29" s="373"/>
-      <c r="AF29" s="373"/>
-      <c r="AG29" s="373"/>
-      <c r="AH29" s="413"/>
-      <c r="AI29" s="381"/>
-      <c r="AJ29" s="414"/>
+      <c r="Z29" s="384"/>
+      <c r="AA29" s="384"/>
+      <c r="AB29" s="410"/>
+      <c r="AC29" s="411"/>
+      <c r="AD29" s="374"/>
+      <c r="AE29" s="372"/>
+      <c r="AF29" s="372"/>
+      <c r="AG29" s="372"/>
+      <c r="AH29" s="412"/>
+      <c r="AI29" s="380"/>
+      <c r="AJ29" s="413"/>
       <c r="AK29" s="98"/>
     </row>
-    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="191" t="s">
         <v>6</v>
       </c>
@@ -5580,22 +5608,22 @@
       <c r="W30" s="100"/>
       <c r="X30" s="100"/>
       <c r="Y30" s="190"/>
-      <c r="Z30" s="415"/>
-      <c r="AA30" s="415"/>
-      <c r="AB30" s="415"/>
-      <c r="AC30" s="416"/>
-      <c r="AD30" s="375"/>
-      <c r="AE30" s="373"/>
-      <c r="AF30" s="373"/>
-      <c r="AG30" s="373"/>
-      <c r="AH30" s="375"/>
-      <c r="AI30" s="381"/>
-      <c r="AJ30" s="414"/>
+      <c r="Z30" s="414"/>
+      <c r="AA30" s="414"/>
+      <c r="AB30" s="414"/>
+      <c r="AC30" s="415"/>
+      <c r="AD30" s="374"/>
+      <c r="AE30" s="372"/>
+      <c r="AF30" s="372"/>
+      <c r="AG30" s="372"/>
+      <c r="AH30" s="374"/>
+      <c r="AI30" s="380"/>
+      <c r="AJ30" s="413"/>
       <c r="AK30" s="114" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="14" t="s">
         <v>9</v>
       </c>
@@ -5623,22 +5651,22 @@
       <c r="W31" s="30"/>
       <c r="X31" s="30"/>
       <c r="Y31" s="32"/>
-      <c r="Z31" s="373"/>
-      <c r="AA31" s="373"/>
-      <c r="AB31" s="373"/>
-      <c r="AC31" s="374"/>
-      <c r="AD31" s="375"/>
-      <c r="AE31" s="373"/>
-      <c r="AF31" s="373"/>
-      <c r="AG31" s="373"/>
-      <c r="AH31" s="417"/>
-      <c r="AI31" s="417"/>
-      <c r="AJ31" s="418"/>
+      <c r="Z31" s="372"/>
+      <c r="AA31" s="372"/>
+      <c r="AB31" s="372"/>
+      <c r="AC31" s="373"/>
+      <c r="AD31" s="374"/>
+      <c r="AE31" s="372"/>
+      <c r="AF31" s="372"/>
+      <c r="AG31" s="372"/>
+      <c r="AH31" s="416"/>
+      <c r="AI31" s="416"/>
+      <c r="AJ31" s="417"/>
       <c r="AK31" s="96" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="14" t="s">
         <v>30</v>
       </c>
@@ -5714,22 +5742,22 @@
       <c r="Y32" s="302" t="s">
         <v>61</v>
       </c>
-      <c r="Z32" s="413"/>
-      <c r="AA32" s="413"/>
-      <c r="AB32" s="419"/>
-      <c r="AC32" s="420"/>
-      <c r="AD32" s="413"/>
-      <c r="AE32" s="385"/>
-      <c r="AF32" s="385"/>
-      <c r="AG32" s="385"/>
-      <c r="AH32" s="417"/>
-      <c r="AI32" s="417"/>
-      <c r="AJ32" s="418"/>
+      <c r="Z32" s="412"/>
+      <c r="AA32" s="412"/>
+      <c r="AB32" s="418"/>
+      <c r="AC32" s="419"/>
+      <c r="AD32" s="412"/>
+      <c r="AE32" s="384"/>
+      <c r="AF32" s="384"/>
+      <c r="AG32" s="384"/>
+      <c r="AH32" s="416"/>
+      <c r="AI32" s="416"/>
+      <c r="AJ32" s="417"/>
       <c r="AK32" s="98" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="191" t="s">
         <v>12</v>
       </c>
@@ -5792,25 +5820,25 @@
       <c r="X33" s="305" t="s">
         <v>79</v>
       </c>
-      <c r="Y33" s="353" t="s">
+      <c r="Y33" s="352" t="s">
         <v>79</v>
       </c>
-      <c r="Z33" s="421"/>
-      <c r="AA33" s="421"/>
-      <c r="AB33" s="413"/>
-      <c r="AC33" s="382"/>
-      <c r="AD33" s="422"/>
-      <c r="AE33" s="423"/>
-      <c r="AF33" s="383"/>
-      <c r="AG33" s="413"/>
-      <c r="AH33" s="413"/>
-      <c r="AI33" s="413"/>
-      <c r="AJ33" s="424"/>
+      <c r="Z33" s="420"/>
+      <c r="AA33" s="420"/>
+      <c r="AB33" s="412"/>
+      <c r="AC33" s="381"/>
+      <c r="AD33" s="421"/>
+      <c r="AE33" s="422"/>
+      <c r="AF33" s="382"/>
+      <c r="AG33" s="412"/>
+      <c r="AH33" s="412"/>
+      <c r="AI33" s="412"/>
+      <c r="AJ33" s="423"/>
       <c r="AK33" s="97" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="192" t="s">
         <v>7</v>
       </c>
@@ -5869,23 +5897,23 @@
       <c r="X34" s="303" t="s">
         <v>79</v>
       </c>
-      <c r="Y34" s="354" t="s">
+      <c r="Y34" s="353" t="s">
         <v>79</v>
       </c>
-      <c r="Z34" s="425"/>
-      <c r="AA34" s="425"/>
-      <c r="AB34" s="425"/>
-      <c r="AC34" s="365"/>
-      <c r="AD34" s="426"/>
-      <c r="AE34" s="377"/>
-      <c r="AF34" s="425"/>
-      <c r="AG34" s="379"/>
-      <c r="AH34" s="379"/>
-      <c r="AI34" s="377"/>
-      <c r="AJ34" s="427"/>
+      <c r="Z34" s="424"/>
+      <c r="AA34" s="424"/>
+      <c r="AB34" s="424"/>
+      <c r="AC34" s="364"/>
+      <c r="AD34" s="425"/>
+      <c r="AE34" s="376"/>
+      <c r="AF34" s="424"/>
+      <c r="AG34" s="378"/>
+      <c r="AH34" s="378"/>
+      <c r="AI34" s="376"/>
+      <c r="AJ34" s="426"/>
       <c r="AK34" s="97"/>
     </row>
-    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="234" t="s">
         <v>50</v>
       </c>
@@ -5945,19 +5973,19 @@
       <c r="Y35" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="Z35" s="368"/>
-      <c r="AA35" s="360"/>
-      <c r="AB35" s="369"/>
-      <c r="AC35" s="370"/>
-      <c r="AD35" s="362"/>
-      <c r="AE35" s="360"/>
-      <c r="AF35" s="360"/>
-      <c r="AG35" s="360"/>
-      <c r="AH35" s="360"/>
-      <c r="AI35" s="360"/>
-      <c r="AJ35" s="363"/>
-    </row>
-    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="367"/>
+      <c r="AA35" s="359"/>
+      <c r="AB35" s="368"/>
+      <c r="AC35" s="369"/>
+      <c r="AD35" s="361"/>
+      <c r="AE35" s="359"/>
+      <c r="AF35" s="359"/>
+      <c r="AG35" s="359"/>
+      <c r="AH35" s="359"/>
+      <c r="AI35" s="359"/>
+      <c r="AJ35" s="362"/>
+    </row>
+    <row r="36" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="14" t="s">
         <v>74</v>
       </c>
@@ -6015,19 +6043,19 @@
       <c r="Y36" s="255" t="s">
         <v>46</v>
       </c>
-      <c r="Z36" s="381"/>
-      <c r="AA36" s="423"/>
-      <c r="AB36" s="381"/>
-      <c r="AC36" s="382"/>
-      <c r="AD36" s="419"/>
-      <c r="AE36" s="375"/>
-      <c r="AF36" s="417"/>
-      <c r="AG36" s="419"/>
-      <c r="AH36" s="375"/>
-      <c r="AI36" s="373"/>
-      <c r="AJ36" s="414"/>
-    </row>
-    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="380"/>
+      <c r="AA36" s="422"/>
+      <c r="AB36" s="380"/>
+      <c r="AC36" s="381"/>
+      <c r="AD36" s="418"/>
+      <c r="AE36" s="374"/>
+      <c r="AF36" s="416"/>
+      <c r="AG36" s="418"/>
+      <c r="AH36" s="374"/>
+      <c r="AI36" s="372"/>
+      <c r="AJ36" s="413"/>
+    </row>
+    <row r="37" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="191" t="s">
         <v>41</v>
       </c>
@@ -6081,19 +6109,19 @@
       <c r="Y37" s="331" t="s">
         <v>77</v>
       </c>
-      <c r="Z37" s="428"/>
-      <c r="AA37" s="421"/>
-      <c r="AB37" s="415"/>
-      <c r="AC37" s="416"/>
-      <c r="AD37" s="413"/>
-      <c r="AE37" s="413"/>
-      <c r="AF37" s="373"/>
-      <c r="AG37" s="375"/>
-      <c r="AH37" s="419"/>
-      <c r="AI37" s="417"/>
-      <c r="AJ37" s="429"/>
-    </row>
-    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="427"/>
+      <c r="AA37" s="420"/>
+      <c r="AB37" s="414"/>
+      <c r="AC37" s="415"/>
+      <c r="AD37" s="412"/>
+      <c r="AE37" s="412"/>
+      <c r="AF37" s="372"/>
+      <c r="AG37" s="374"/>
+      <c r="AH37" s="418"/>
+      <c r="AI37" s="416"/>
+      <c r="AJ37" s="428"/>
+    </row>
+    <row r="38" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="191" t="s">
         <v>29</v>
       </c>
@@ -6121,19 +6149,19 @@
       <c r="W38" s="340"/>
       <c r="X38" s="102"/>
       <c r="Y38" s="115"/>
-      <c r="Z38" s="430"/>
-      <c r="AA38" s="431"/>
-      <c r="AB38" s="385"/>
-      <c r="AC38" s="432"/>
-      <c r="AD38" s="413"/>
-      <c r="AE38" s="413"/>
-      <c r="AF38" s="373"/>
-      <c r="AG38" s="375"/>
-      <c r="AH38" s="375"/>
-      <c r="AI38" s="373"/>
-      <c r="AJ38" s="414"/>
-    </row>
-    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z38" s="429"/>
+      <c r="AA38" s="430"/>
+      <c r="AB38" s="384"/>
+      <c r="AC38" s="431"/>
+      <c r="AD38" s="412"/>
+      <c r="AE38" s="412"/>
+      <c r="AF38" s="372"/>
+      <c r="AG38" s="374"/>
+      <c r="AH38" s="374"/>
+      <c r="AI38" s="372"/>
+      <c r="AJ38" s="413"/>
+    </row>
+    <row r="39" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="192" t="s">
         <v>42</v>
       </c>
@@ -6177,19 +6205,19 @@
       <c r="Y39" s="329" t="s">
         <v>61</v>
       </c>
-      <c r="Z39" s="364"/>
-      <c r="AA39" s="366"/>
-      <c r="AB39" s="377"/>
-      <c r="AC39" s="378"/>
-      <c r="AD39" s="366"/>
-      <c r="AE39" s="364"/>
-      <c r="AF39" s="364"/>
-      <c r="AG39" s="366"/>
-      <c r="AH39" s="433"/>
-      <c r="AI39" s="433"/>
-      <c r="AJ39" s="434"/>
-    </row>
-    <row r="40" spans="1:37" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="363"/>
+      <c r="AA39" s="365"/>
+      <c r="AB39" s="376"/>
+      <c r="AC39" s="377"/>
+      <c r="AD39" s="365"/>
+      <c r="AE39" s="363"/>
+      <c r="AF39" s="363"/>
+      <c r="AG39" s="365"/>
+      <c r="AH39" s="432"/>
+      <c r="AI39" s="432"/>
+      <c r="AJ39" s="433"/>
+    </row>
+    <row r="40" spans="1:37" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="194" t="s">
         <v>15</v>
       </c>
@@ -6223,17 +6251,17 @@
       <c r="W40" s="26"/>
       <c r="X40" s="26"/>
       <c r="Y40" s="23"/>
-      <c r="Z40" s="381"/>
-      <c r="AA40" s="381"/>
-      <c r="AB40" s="381"/>
-      <c r="AC40" s="382"/>
-      <c r="AD40" s="380"/>
-      <c r="AE40" s="381"/>
-      <c r="AF40" s="381"/>
-      <c r="AG40" s="410"/>
-      <c r="AH40" s="410"/>
-      <c r="AI40" s="410"/>
-      <c r="AJ40" s="435"/>
+      <c r="Z40" s="380"/>
+      <c r="AA40" s="380"/>
+      <c r="AB40" s="380"/>
+      <c r="AC40" s="381"/>
+      <c r="AD40" s="379"/>
+      <c r="AE40" s="380"/>
+      <c r="AF40" s="380"/>
+      <c r="AG40" s="409"/>
+      <c r="AH40" s="409"/>
+      <c r="AI40" s="409"/>
+      <c r="AJ40" s="434"/>
       <c r="AK40" s="75"/>
     </row>
     <row r="41" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
@@ -6270,17 +6298,17 @@
       <c r="W41" s="30"/>
       <c r="X41" s="30"/>
       <c r="Y41" s="32"/>
-      <c r="Z41" s="373"/>
-      <c r="AA41" s="373"/>
-      <c r="AB41" s="373"/>
-      <c r="AC41" s="374"/>
-      <c r="AD41" s="375"/>
-      <c r="AE41" s="373"/>
-      <c r="AF41" s="373"/>
-      <c r="AG41" s="373"/>
-      <c r="AH41" s="381"/>
-      <c r="AI41" s="381"/>
-      <c r="AJ41" s="384"/>
+      <c r="Z41" s="372"/>
+      <c r="AA41" s="372"/>
+      <c r="AB41" s="372"/>
+      <c r="AC41" s="373"/>
+      <c r="AD41" s="374"/>
+      <c r="AE41" s="372"/>
+      <c r="AF41" s="372"/>
+      <c r="AG41" s="372"/>
+      <c r="AH41" s="380"/>
+      <c r="AI41" s="380"/>
+      <c r="AJ41" s="383"/>
       <c r="AK41" s="75"/>
     </row>
     <row r="42" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6347,20 +6375,20 @@
       <c r="Y42" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="Z42" s="373"/>
-      <c r="AA42" s="373"/>
-      <c r="AB42" s="373"/>
-      <c r="AC42" s="374"/>
-      <c r="AD42" s="375"/>
-      <c r="AE42" s="373"/>
-      <c r="AF42" s="373"/>
-      <c r="AG42" s="373"/>
-      <c r="AH42" s="360"/>
-      <c r="AI42" s="360"/>
-      <c r="AJ42" s="363"/>
+      <c r="Z42" s="372"/>
+      <c r="AA42" s="372"/>
+      <c r="AB42" s="372"/>
+      <c r="AC42" s="373"/>
+      <c r="AD42" s="374"/>
+      <c r="AE42" s="372"/>
+      <c r="AF42" s="372"/>
+      <c r="AG42" s="372"/>
+      <c r="AH42" s="359"/>
+      <c r="AI42" s="359"/>
+      <c r="AJ42" s="362"/>
       <c r="AK42" s="75"/>
     </row>
-    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="193" t="s">
         <v>102</v>
       </c>
@@ -6388,19 +6416,19 @@
       <c r="W43" s="38"/>
       <c r="X43" s="38"/>
       <c r="Y43" s="39"/>
-      <c r="Z43" s="368"/>
-      <c r="AA43" s="368"/>
-      <c r="AB43" s="368"/>
-      <c r="AC43" s="436"/>
-      <c r="AD43" s="437"/>
-      <c r="AE43" s="368"/>
-      <c r="AF43" s="368"/>
-      <c r="AG43" s="368"/>
-      <c r="AH43" s="368"/>
-      <c r="AI43" s="368"/>
-      <c r="AJ43" s="438"/>
-    </row>
-    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z43" s="367"/>
+      <c r="AA43" s="367"/>
+      <c r="AB43" s="367"/>
+      <c r="AC43" s="435"/>
+      <c r="AD43" s="436"/>
+      <c r="AE43" s="367"/>
+      <c r="AF43" s="367"/>
+      <c r="AG43" s="367"/>
+      <c r="AH43" s="367"/>
+      <c r="AI43" s="367"/>
+      <c r="AJ43" s="437"/>
+    </row>
+    <row r="44" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="181" t="s">
         <v>72</v>
       </c>
@@ -6452,19 +6480,19 @@
       <c r="Y44" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="Z44" s="381"/>
-      <c r="AA44" s="381"/>
-      <c r="AB44" s="381"/>
-      <c r="AC44" s="382"/>
-      <c r="AD44" s="380"/>
-      <c r="AE44" s="381"/>
-      <c r="AF44" s="381"/>
-      <c r="AG44" s="381"/>
-      <c r="AH44" s="381"/>
-      <c r="AI44" s="381"/>
-      <c r="AJ44" s="384"/>
-    </row>
-    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Z44" s="380"/>
+      <c r="AA44" s="380"/>
+      <c r="AB44" s="380"/>
+      <c r="AC44" s="381"/>
+      <c r="AD44" s="379"/>
+      <c r="AE44" s="380"/>
+      <c r="AF44" s="380"/>
+      <c r="AG44" s="380"/>
+      <c r="AH44" s="380"/>
+      <c r="AI44" s="380"/>
+      <c r="AJ44" s="383"/>
+    </row>
+    <row r="45" spans="1:37" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>51</v>
       </c>
@@ -6510,19 +6538,19 @@
       <c r="W45" s="337"/>
       <c r="X45" s="337"/>
       <c r="Y45" s="338"/>
-      <c r="Z45" s="364"/>
-      <c r="AA45" s="364"/>
-      <c r="AB45" s="364"/>
-      <c r="AC45" s="365"/>
-      <c r="AD45" s="366"/>
-      <c r="AE45" s="364"/>
-      <c r="AF45" s="364"/>
-      <c r="AG45" s="364"/>
-      <c r="AH45" s="364"/>
-      <c r="AI45" s="364"/>
-      <c r="AJ45" s="367"/>
-    </row>
-    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z45" s="363"/>
+      <c r="AA45" s="363"/>
+      <c r="AB45" s="363"/>
+      <c r="AC45" s="364"/>
+      <c r="AD45" s="365"/>
+      <c r="AE45" s="363"/>
+      <c r="AF45" s="363"/>
+      <c r="AG45" s="363"/>
+      <c r="AH45" s="363"/>
+      <c r="AI45" s="363"/>
+      <c r="AJ45" s="366"/>
+    </row>
+    <row r="46" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="130" t="s">
         <v>88</v>
       </c>
@@ -6582,19 +6610,19 @@
       <c r="W46" s="128"/>
       <c r="X46" s="111"/>
       <c r="Y46" s="111"/>
-      <c r="Z46" s="391"/>
-      <c r="AA46" s="391"/>
-      <c r="AB46" s="439"/>
-      <c r="AC46" s="439"/>
-      <c r="AD46" s="440"/>
-      <c r="AE46" s="391"/>
-      <c r="AF46" s="391"/>
-      <c r="AG46" s="391"/>
-      <c r="AH46" s="391"/>
-      <c r="AI46" s="439"/>
-      <c r="AJ46" s="441"/>
-    </row>
-    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z46" s="390"/>
+      <c r="AA46" s="390"/>
+      <c r="AB46" s="438"/>
+      <c r="AC46" s="438"/>
+      <c r="AD46" s="439"/>
+      <c r="AE46" s="390"/>
+      <c r="AF46" s="390"/>
+      <c r="AG46" s="390"/>
+      <c r="AH46" s="390"/>
+      <c r="AI46" s="438"/>
+      <c r="AJ46" s="440"/>
+    </row>
+    <row r="47" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="332" t="s">
         <v>89</v>
       </c>
@@ -6630,19 +6658,19 @@
       <c r="Y47" s="227" t="s">
         <v>54</v>
       </c>
-      <c r="Z47" s="442"/>
-      <c r="AA47" s="442"/>
-      <c r="AB47" s="439"/>
-      <c r="AC47" s="443"/>
-      <c r="AD47" s="444"/>
-      <c r="AE47" s="442"/>
-      <c r="AF47" s="442"/>
-      <c r="AG47" s="442"/>
-      <c r="AH47" s="439"/>
-      <c r="AI47" s="439"/>
-      <c r="AJ47" s="441"/>
-    </row>
-    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z47" s="441"/>
+      <c r="AA47" s="441"/>
+      <c r="AB47" s="438"/>
+      <c r="AC47" s="442"/>
+      <c r="AD47" s="443"/>
+      <c r="AE47" s="441"/>
+      <c r="AF47" s="441"/>
+      <c r="AG47" s="441"/>
+      <c r="AH47" s="438"/>
+      <c r="AI47" s="438"/>
+      <c r="AJ47" s="440"/>
+    </row>
+    <row r="48" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="332" t="s">
         <v>81</v>
       </c>
@@ -6670,19 +6698,19 @@
       <c r="W48" s="133"/>
       <c r="X48" s="178"/>
       <c r="Y48" s="227"/>
-      <c r="Z48" s="442"/>
-      <c r="AA48" s="442"/>
-      <c r="AB48" s="445"/>
-      <c r="AC48" s="443"/>
-      <c r="AD48" s="444"/>
-      <c r="AE48" s="442"/>
-      <c r="AF48" s="442"/>
-      <c r="AG48" s="442"/>
-      <c r="AH48" s="439"/>
-      <c r="AI48" s="439"/>
-      <c r="AJ48" s="441"/>
-    </row>
-    <row r="49" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z48" s="441"/>
+      <c r="AA48" s="441"/>
+      <c r="AB48" s="444"/>
+      <c r="AC48" s="442"/>
+      <c r="AD48" s="443"/>
+      <c r="AE48" s="441"/>
+      <c r="AF48" s="441"/>
+      <c r="AG48" s="441"/>
+      <c r="AH48" s="438"/>
+      <c r="AI48" s="438"/>
+      <c r="AJ48" s="440"/>
+    </row>
+    <row r="49" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="138" t="s">
         <v>90</v>
       </c>
@@ -6732,22 +6760,22 @@
       <c r="Y49" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="Z49" s="446"/>
-      <c r="AA49" s="446"/>
-      <c r="AB49" s="447"/>
-      <c r="AC49" s="448"/>
-      <c r="AD49" s="449"/>
-      <c r="AE49" s="446"/>
-      <c r="AF49" s="446"/>
-      <c r="AG49" s="446"/>
-      <c r="AH49" s="450"/>
-      <c r="AI49" s="451"/>
-      <c r="AJ49" s="452"/>
-      <c r="AK49" s="491" t="s">
+      <c r="Z49" s="445"/>
+      <c r="AA49" s="445"/>
+      <c r="AB49" s="446"/>
+      <c r="AC49" s="447"/>
+      <c r="AD49" s="448"/>
+      <c r="AE49" s="445"/>
+      <c r="AF49" s="445"/>
+      <c r="AG49" s="445"/>
+      <c r="AH49" s="449"/>
+      <c r="AI49" s="450"/>
+      <c r="AJ49" s="451"/>
+      <c r="AK49" s="490" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="332" t="s">
         <v>91</v>
       </c>
@@ -6783,18 +6811,18 @@
       <c r="W50" s="34"/>
       <c r="X50" s="40"/>
       <c r="Y50" s="85"/>
-      <c r="Z50" s="446"/>
-      <c r="AA50" s="446"/>
-      <c r="AB50" s="447"/>
-      <c r="AC50" s="448"/>
-      <c r="AD50" s="449"/>
-      <c r="AE50" s="446"/>
-      <c r="AF50" s="446"/>
-      <c r="AG50" s="446"/>
-      <c r="AH50" s="450"/>
-      <c r="AI50" s="451"/>
-      <c r="AJ50" s="452"/>
-      <c r="AK50" s="491"/>
+      <c r="Z50" s="445"/>
+      <c r="AA50" s="445"/>
+      <c r="AB50" s="446"/>
+      <c r="AC50" s="447"/>
+      <c r="AD50" s="448"/>
+      <c r="AE50" s="445"/>
+      <c r="AF50" s="445"/>
+      <c r="AG50" s="445"/>
+      <c r="AH50" s="449"/>
+      <c r="AI50" s="450"/>
+      <c r="AJ50" s="451"/>
+      <c r="AK50" s="490"/>
     </row>
     <row r="51" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="138" t="s">
@@ -6866,22 +6894,22 @@
       <c r="Y51" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="Z51" s="446"/>
-      <c r="AA51" s="446"/>
-      <c r="AB51" s="447"/>
-      <c r="AC51" s="448"/>
-      <c r="AD51" s="449"/>
-      <c r="AE51" s="446"/>
-      <c r="AF51" s="446"/>
-      <c r="AG51" s="446"/>
-      <c r="AH51" s="450"/>
-      <c r="AI51" s="451"/>
-      <c r="AJ51" s="452"/>
+      <c r="Z51" s="445"/>
+      <c r="AA51" s="445"/>
+      <c r="AB51" s="446"/>
+      <c r="AC51" s="447"/>
+      <c r="AD51" s="448"/>
+      <c r="AE51" s="445"/>
+      <c r="AF51" s="445"/>
+      <c r="AG51" s="445"/>
+      <c r="AH51" s="449"/>
+      <c r="AI51" s="450"/>
+      <c r="AJ51" s="451"/>
       <c r="AK51" s="179" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
         <v>92</v>
       </c>
@@ -6903,7 +6931,7 @@
       <c r="G52" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="H52" s="352" t="s">
+      <c r="H52" s="351" t="s">
         <v>55</v>
       </c>
       <c r="I52" s="204" t="s">
@@ -6953,22 +6981,22 @@
       <c r="Y52" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="Z52" s="451"/>
-      <c r="AA52" s="451"/>
-      <c r="AB52" s="447"/>
-      <c r="AC52" s="448"/>
-      <c r="AD52" s="447"/>
-      <c r="AE52" s="451"/>
-      <c r="AF52" s="451"/>
-      <c r="AG52" s="451"/>
-      <c r="AH52" s="453"/>
-      <c r="AI52" s="451"/>
-      <c r="AJ52" s="452"/>
+      <c r="Z52" s="450"/>
+      <c r="AA52" s="450"/>
+      <c r="AB52" s="446"/>
+      <c r="AC52" s="447"/>
+      <c r="AD52" s="446"/>
+      <c r="AE52" s="450"/>
+      <c r="AF52" s="450"/>
+      <c r="AG52" s="450"/>
+      <c r="AH52" s="452"/>
+      <c r="AI52" s="450"/>
+      <c r="AJ52" s="451"/>
       <c r="AK52" s="179" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>93</v>
       </c>
@@ -7036,34 +7064,34 @@
       <c r="Y53" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="Z53" s="451"/>
-      <c r="AA53" s="447"/>
-      <c r="AB53" s="447"/>
-      <c r="AC53" s="448"/>
-      <c r="AD53" s="447"/>
-      <c r="AE53" s="447"/>
-      <c r="AF53" s="451"/>
-      <c r="AG53" s="451"/>
-      <c r="AH53" s="453"/>
-      <c r="AI53" s="451"/>
-      <c r="AJ53" s="454"/>
+      <c r="Z53" s="450"/>
+      <c r="AA53" s="446"/>
+      <c r="AB53" s="446"/>
+      <c r="AC53" s="447"/>
+      <c r="AD53" s="446"/>
+      <c r="AE53" s="446"/>
+      <c r="AF53" s="450"/>
+      <c r="AG53" s="450"/>
+      <c r="AH53" s="452"/>
+      <c r="AI53" s="450"/>
+      <c r="AJ53" s="453"/>
       <c r="AK53" s="180" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="333" t="s">
         <v>62</v>
       </c>
-      <c r="B54" s="499" t="s">
+      <c r="B54" s="507" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="500"/>
-      <c r="D54" s="500"/>
-      <c r="E54" s="500"/>
-      <c r="F54" s="500"/>
-      <c r="G54" s="500"/>
-      <c r="H54" s="501"/>
+      <c r="C54" s="508"/>
+      <c r="D54" s="508"/>
+      <c r="E54" s="508"/>
+      <c r="F54" s="508"/>
+      <c r="G54" s="508"/>
+      <c r="H54" s="509"/>
       <c r="I54" s="87"/>
       <c r="J54" s="40"/>
       <c r="K54" s="40"/>
@@ -7091,19 +7119,19 @@
       <c r="W54" s="40"/>
       <c r="X54" s="40"/>
       <c r="Y54" s="85"/>
-      <c r="Z54" s="447"/>
-      <c r="AA54" s="447"/>
-      <c r="AB54" s="447"/>
-      <c r="AC54" s="448"/>
-      <c r="AD54" s="447"/>
-      <c r="AE54" s="447"/>
-      <c r="AF54" s="451"/>
-      <c r="AG54" s="451"/>
-      <c r="AH54" s="447"/>
-      <c r="AI54" s="451"/>
-      <c r="AJ54" s="452"/>
-    </row>
-    <row r="55" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z54" s="446"/>
+      <c r="AA54" s="446"/>
+      <c r="AB54" s="446"/>
+      <c r="AC54" s="447"/>
+      <c r="AD54" s="446"/>
+      <c r="AE54" s="446"/>
+      <c r="AF54" s="450"/>
+      <c r="AG54" s="450"/>
+      <c r="AH54" s="446"/>
+      <c r="AI54" s="450"/>
+      <c r="AJ54" s="451"/>
+    </row>
+    <row r="55" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="14" t="s">
         <v>95</v>
       </c>
@@ -7157,19 +7185,19 @@
       <c r="Y55" s="339" t="s">
         <v>77</v>
       </c>
-      <c r="Z55" s="445"/>
-      <c r="AA55" s="445"/>
-      <c r="AB55" s="445"/>
-      <c r="AC55" s="443"/>
-      <c r="AD55" s="455"/>
-      <c r="AE55" s="455"/>
-      <c r="AF55" s="455"/>
-      <c r="AG55" s="455"/>
-      <c r="AH55" s="456"/>
-      <c r="AI55" s="457"/>
-      <c r="AJ55" s="458"/>
-    </row>
-    <row r="56" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z55" s="444"/>
+      <c r="AA55" s="444"/>
+      <c r="AB55" s="444"/>
+      <c r="AC55" s="442"/>
+      <c r="AD55" s="454"/>
+      <c r="AE55" s="454"/>
+      <c r="AF55" s="454"/>
+      <c r="AG55" s="454"/>
+      <c r="AH55" s="455"/>
+      <c r="AI55" s="456"/>
+      <c r="AJ55" s="457"/>
+    </row>
+    <row r="56" spans="1:37" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="191" t="s">
         <v>78</v>
       </c>
@@ -7199,96 +7227,96 @@
       <c r="W56" s="178"/>
       <c r="X56" s="178"/>
       <c r="Y56" s="227"/>
-      <c r="Z56" s="445"/>
-      <c r="AA56" s="445"/>
-      <c r="AB56" s="445"/>
-      <c r="AC56" s="443"/>
-      <c r="AD56" s="502"/>
-      <c r="AE56" s="503"/>
-      <c r="AF56" s="503"/>
-      <c r="AG56" s="503"/>
-      <c r="AH56" s="503"/>
-      <c r="AI56" s="503"/>
-      <c r="AJ56" s="504"/>
-    </row>
-    <row r="57" spans="1:37" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="459" t="s">
+      <c r="Z56" s="444"/>
+      <c r="AA56" s="444"/>
+      <c r="AB56" s="444"/>
+      <c r="AC56" s="442"/>
+      <c r="AD56" s="492"/>
+      <c r="AE56" s="493"/>
+      <c r="AF56" s="493"/>
+      <c r="AG56" s="493"/>
+      <c r="AH56" s="493"/>
+      <c r="AI56" s="493"/>
+      <c r="AJ56" s="494"/>
+    </row>
+    <row r="57" spans="1:37" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A57" s="458" t="s">
         <v>94</v>
       </c>
-      <c r="B57" s="460" t="s">
+      <c r="B57" s="459" t="s">
         <v>61</v>
       </c>
-      <c r="C57" s="460" t="s">
+      <c r="C57" s="459" t="s">
         <v>61</v>
       </c>
-      <c r="D57" s="461" t="s">
+      <c r="D57" s="460" t="s">
         <v>61</v>
       </c>
-      <c r="E57" s="462" t="s">
+      <c r="E57" s="461" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="463"/>
-      <c r="G57" s="464"/>
-      <c r="H57" s="465"/>
-      <c r="I57" s="466"/>
-      <c r="J57" s="467"/>
-      <c r="K57" s="468"/>
-      <c r="L57" s="469" t="s">
+      <c r="F57" s="462"/>
+      <c r="G57" s="463"/>
+      <c r="H57" s="464"/>
+      <c r="I57" s="465"/>
+      <c r="J57" s="466"/>
+      <c r="K57" s="467"/>
+      <c r="L57" s="468" t="s">
         <v>61</v>
       </c>
-      <c r="M57" s="470" t="s">
+      <c r="M57" s="469" t="s">
         <v>61</v>
       </c>
-      <c r="N57" s="471" t="s">
+      <c r="N57" s="470" t="s">
         <v>61</v>
       </c>
-      <c r="O57" s="472" t="s">
+      <c r="O57" s="471" t="s">
         <v>61</v>
       </c>
-      <c r="P57" s="473" t="s">
+      <c r="P57" s="472" t="s">
         <v>79</v>
       </c>
-      <c r="Q57" s="473" t="s">
+      <c r="Q57" s="472" t="s">
         <v>79</v>
       </c>
-      <c r="R57" s="474" t="s">
+      <c r="R57" s="473" t="s">
         <v>61</v>
       </c>
-      <c r="S57" s="474" t="s">
+      <c r="S57" s="473" t="s">
         <v>61</v>
       </c>
-      <c r="T57" s="474" t="s">
+      <c r="T57" s="473" t="s">
         <v>61</v>
       </c>
-      <c r="U57" s="475" t="s">
+      <c r="U57" s="474" t="s">
         <v>79</v>
       </c>
-      <c r="V57" s="476" t="s">
+      <c r="V57" s="475" t="s">
         <v>79</v>
       </c>
-      <c r="W57" s="473" t="s">
+      <c r="W57" s="472" t="s">
         <v>79</v>
       </c>
-      <c r="X57" s="477" t="s">
+      <c r="X57" s="476" t="s">
         <v>61</v>
       </c>
-      <c r="Y57" s="478" t="s">
+      <c r="Y57" s="477" t="s">
         <v>61</v>
       </c>
-      <c r="Z57" s="479"/>
-      <c r="AA57" s="479"/>
-      <c r="AB57" s="480"/>
-      <c r="AC57" s="481"/>
-      <c r="AD57" s="482"/>
-      <c r="AE57" s="483"/>
-      <c r="AF57" s="483"/>
-      <c r="AG57" s="483"/>
-      <c r="AH57" s="484"/>
-      <c r="AI57" s="484"/>
-      <c r="AJ57" s="485"/>
-      <c r="AK57" s="492"/>
-    </row>
-    <row r="58" spans="1:37" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="Z57" s="478"/>
+      <c r="AA57" s="478"/>
+      <c r="AB57" s="479"/>
+      <c r="AC57" s="480"/>
+      <c r="AD57" s="481"/>
+      <c r="AE57" s="482"/>
+      <c r="AF57" s="482"/>
+      <c r="AG57" s="482"/>
+      <c r="AH57" s="483"/>
+      <c r="AI57" s="483"/>
+      <c r="AJ57" s="484"/>
+      <c r="AK57" s="491"/>
+    </row>
+    <row r="58" spans="1:37" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B58" s="43"/>
       <c r="C58" s="43"/>
       <c r="D58" s="43"/>
@@ -7314,64 +7342,59 @@
       <c r="X58" s="43"/>
       <c r="Y58" s="43"/>
     </row>
-    <row r="59" spans="1:37" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:37" ht="21.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B59" s="498" t="s">
+      <c r="B59" s="500" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="498"/>
-      <c r="D59" s="498"/>
-      <c r="E59" s="498"/>
-      <c r="F59" s="498"/>
-      <c r="G59" s="498"/>
-      <c r="H59" s="498"/>
-      <c r="I59" s="498" t="s">
+      <c r="C59" s="500"/>
+      <c r="D59" s="500"/>
+      <c r="E59" s="500"/>
+      <c r="F59" s="500"/>
+      <c r="G59" s="500"/>
+      <c r="H59" s="500"/>
+      <c r="I59" s="500" t="s">
         <v>97</v>
       </c>
-      <c r="J59" s="498"/>
-      <c r="K59" s="498"/>
-      <c r="L59" s="498"/>
-      <c r="M59" s="498"/>
-      <c r="N59" s="498"/>
-      <c r="O59" s="498"/>
-      <c r="P59" s="498" t="s">
+      <c r="J59" s="500"/>
+      <c r="K59" s="500"/>
+      <c r="L59" s="500"/>
+      <c r="M59" s="500"/>
+      <c r="N59" s="500"/>
+      <c r="O59" s="500"/>
+      <c r="P59" s="500" t="s">
         <v>98</v>
       </c>
-      <c r="Q59" s="498"/>
-      <c r="R59" s="498"/>
-      <c r="S59" s="498"/>
-      <c r="T59" s="498"/>
-      <c r="U59" s="498"/>
-      <c r="V59" s="498"/>
-      <c r="W59" s="498" t="s">
+      <c r="Q59" s="500"/>
+      <c r="R59" s="500"/>
+      <c r="S59" s="500"/>
+      <c r="T59" s="500"/>
+      <c r="U59" s="500"/>
+      <c r="V59" s="500"/>
+      <c r="W59" s="500" t="s">
         <v>104</v>
       </c>
-      <c r="X59" s="498"/>
-      <c r="Y59" s="498"/>
-      <c r="Z59" s="498"/>
-      <c r="AA59" s="498"/>
-      <c r="AB59" s="498"/>
-      <c r="AC59" s="498"/>
-      <c r="AD59" s="509"/>
-      <c r="AE59" s="509"/>
-      <c r="AF59" s="509"/>
-      <c r="AG59" s="509"/>
-      <c r="AH59" s="509"/>
-      <c r="AI59" s="509"/>
-      <c r="AJ59" s="510"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
+      <c r="X59" s="500"/>
+      <c r="Y59" s="500"/>
+      <c r="Z59" s="500"/>
+      <c r="AA59" s="500"/>
+      <c r="AB59" s="500"/>
+      <c r="AC59" s="500"/>
+      <c r="AD59" s="501"/>
+      <c r="AE59" s="501"/>
+      <c r="AF59" s="501"/>
+      <c r="AG59" s="501"/>
+      <c r="AH59" s="501"/>
+      <c r="AI59" s="501"/>
+      <c r="AJ59" s="502"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.25">
       <c r="O63" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="AD56:AJ56"/>
-    <mergeCell ref="W2:AC2"/>
-    <mergeCell ref="AD2:AJ2"/>
-    <mergeCell ref="W59:AC59"/>
-    <mergeCell ref="AD59:AJ59"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="I2:O2"/>
@@ -7380,6 +7403,11 @@
     <mergeCell ref="I59:O59"/>
     <mergeCell ref="P59:V59"/>
     <mergeCell ref="B54:H54"/>
+    <mergeCell ref="AD56:AJ56"/>
+    <mergeCell ref="W2:AC2"/>
+    <mergeCell ref="AD2:AJ2"/>
+    <mergeCell ref="W59:AC59"/>
+    <mergeCell ref="AD59:AJ59"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -7391,30 +7419,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="307"/>
-    <col min="2" max="2" width="16.42578125" style="307" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" style="307" customWidth="1"/>
-    <col min="4" max="4" width="26.7109375" style="307" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="307"/>
+    <col min="1" max="1" width="8.6640625" style="307"/>
+    <col min="2" max="2" width="16.44140625" style="307" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" style="307" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" style="307" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="307"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="511" t="s">
+    <row r="1" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="510" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="511"/>
-      <c r="D1" s="511"/>
-    </row>
-    <row r="2" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="510"/>
+      <c r="D1" s="510"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="313"/>
       <c r="C2" s="64" t="s">
         <v>19</v>
@@ -7423,12 +7451,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="308"/>
       <c r="C3" s="64"/>
       <c r="D3" s="65"/>
     </row>
-    <row r="4" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="134"/>
       <c r="C4" s="64" t="s">
         <v>19</v>
@@ -7437,12 +7465,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="308"/>
       <c r="C5" s="64"/>
       <c r="D5" s="65"/>
     </row>
-    <row r="6" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="103"/>
       <c r="C6" s="64" t="s">
         <v>19</v>
@@ -7451,12 +7479,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="308"/>
       <c r="C7" s="64"/>
       <c r="D7" s="65"/>
     </row>
-    <row r="8" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="104"/>
       <c r="C8" s="64" t="s">
         <v>19</v>
@@ -7465,12 +7493,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="308"/>
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
     </row>
-    <row r="10" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="66"/>
       <c r="C10" s="64" t="s">
         <v>19</v>
@@ -7479,12 +7507,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="105"/>
       <c r="C11" s="64"/>
       <c r="D11" s="65"/>
     </row>
-    <row r="12" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="163"/>
       <c r="C12" s="64" t="s">
         <v>19</v>
@@ -7493,12 +7521,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="105"/>
       <c r="C13" s="160"/>
       <c r="D13" s="65"/>
     </row>
-    <row r="14" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="311"/>
       <c r="C14" s="64" t="s">
         <v>19</v>
@@ -7508,12 +7536,12 @@
       </c>
       <c r="F14" s="310"/>
     </row>
-    <row r="15" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="309"/>
       <c r="C15" s="64"/>
       <c r="D15" s="106"/>
     </row>
-    <row r="16" spans="2:6" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="107"/>
       <c r="C16" s="64" t="s">
         <v>19</v>
@@ -7522,12 +7550,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="308"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
     </row>
-    <row r="18" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="135"/>
       <c r="C18" s="64" t="s">
         <v>19</v>
@@ -7536,12 +7564,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="308"/>
       <c r="C19" s="64"/>
       <c r="D19" s="65"/>
     </row>
-    <row r="20" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="67"/>
       <c r="C20" s="64" t="s">
         <v>19</v>
@@ -7550,12 +7578,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="308"/>
       <c r="C21" s="64"/>
       <c r="D21" s="65"/>
     </row>
-    <row r="22" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="120"/>
       <c r="C22" s="64" t="s">
         <v>19</v>
@@ -7564,12 +7592,12 @@
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="308"/>
       <c r="C23" s="64"/>
       <c r="D23" s="65"/>
     </row>
-    <row r="24" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="68"/>
       <c r="C24" s="64" t="s">
         <v>19</v>
@@ -7578,12 +7606,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="308"/>
       <c r="C25" s="64"/>
       <c r="D25" s="65"/>
     </row>
-    <row r="26" spans="2:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="69"/>
       <c r="C26" s="64" t="s">
         <v>19</v>
@@ -7592,12 +7620,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B27" s="308"/>
       <c r="C27" s="308"/>
       <c r="D27" s="65"/>
     </row>
-    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:4" ht="21" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B28" s="70"/>
       <c r="C28" s="64" t="s">
         <v>19</v>
@@ -7606,41 +7634,41 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="308"/>
       <c r="C29" s="308"/>
       <c r="D29" s="308"/>
     </row>
-    <row r="30" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="108"/>
       <c r="C30" s="308"/>
       <c r="D30" s="65" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="308"/>
       <c r="C31" s="308"/>
       <c r="D31" s="65"/>
     </row>
-    <row r="32" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B32" s="71"/>
       <c r="C32" s="308"/>
       <c r="D32" s="65" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="308"/>
       <c r="C33" s="308"/>
       <c r="D33" s="308"/>
     </row>
-    <row r="34" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="308"/>
       <c r="C34" s="308"/>
       <c r="D34" s="308"/>
     </row>
-    <row r="35" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="109"/>
       <c r="C35" s="308"/>
       <c r="D35" s="65" t="s">
